--- a/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
+++ b/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="323">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -407,21 +407,6 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>Tcase_1</t>
-  </si>
-  <si>
-    <t>Tcase_2</t>
-  </si>
-  <si>
-    <t>Tcase_3</t>
-  </si>
-  <si>
-    <t>Tcase_4</t>
-  </si>
-  <si>
-    <t>Tcase_5</t>
-  </si>
-  <si>
     <t>Check 'Now' service brings user to the Order Receipt Page.</t>
   </si>
   <si>
@@ -437,9 +422,6 @@
     <t>Check 'Now' service correctly allocates the right amount of time for the immediate pick up service.</t>
   </si>
   <si>
-    <t>Tcase_6</t>
-  </si>
-  <si>
     <t>Add Classic Deluxe pizza to cart, proceed to order.</t>
   </si>
   <si>
@@ -455,12 +437,6 @@
     <t>Add cheese pizza to the cart, proceed to order</t>
   </si>
   <si>
-    <t>Tcase_7</t>
-  </si>
-  <si>
-    <t>Tcase_8</t>
-  </si>
-  <si>
     <t>Check 'Later' service opens calendar and time selection boxes</t>
   </si>
   <si>
@@ -476,12 +452,6 @@
     <t>Highlight 'Later' button, click Confirm button, select 11th March '15, Hour: 18, Minute: 00</t>
   </si>
   <si>
-    <t>Add ….. Pizza to the cart, proceed to order</t>
-  </si>
-  <si>
-    <t>Add ….. Pizza to the cart, select …… toppings, proceed to order</t>
-  </si>
-  <si>
     <t>Check 'Later' service allocates the right date and time as scheduled on the Order Receipt Page.</t>
   </si>
   <si>
@@ -533,12 +503,6 @@
     <t>Highlight 'Later' button, click Confirm button, select 18 March '15, Hour: 23, Minute: 30</t>
   </si>
   <si>
-    <t>Tcase_9</t>
-  </si>
-  <si>
-    <t>Tcase_10</t>
-  </si>
-  <si>
     <t>Check 'Later' service with different values</t>
   </si>
   <si>
@@ -572,12 +536,6 @@
     <t>To show the various pizzas selected to go forward to the order schedule will actually process correctly here.</t>
   </si>
   <si>
-    <t>Tcase_11</t>
-  </si>
-  <si>
-    <t>Tcase_12</t>
-  </si>
-  <si>
     <t>To check that the correct time stamp for collection appears under the Order Receipt page for the 'Now' service</t>
   </si>
   <si>
@@ -695,13 +653,553 @@
     <t>Within the Later service under the order schedule section, set values so that the order is inside the 45 minute period of ordering too early</t>
   </si>
   <si>
-    <t>Tcase_13</t>
-  </si>
-  <si>
     <t>Highlight 'Later' button, click Confirm button, select 21 February '15, Hour: 14, Minute: 00</t>
   </si>
   <si>
     <t>Within the Later service under the order schedule section, set values for a order that is 1 month back from the current month</t>
+  </si>
+  <si>
+    <t>Add Classic Deluxe Pizza to the cart, proceed to order</t>
+  </si>
+  <si>
+    <t>Select 'Now' service, click confirm button, check Order Receipt Page</t>
+  </si>
+  <si>
+    <t>Select 'Later' service, check date within one week period, hour: 18, Minute: 45, click confirm button, check Order Receipt Page</t>
+  </si>
+  <si>
+    <t>Select 'Later' service, check date within one week period, hour: 5, Minute: 30, click confirm button, check Order Receipt Page</t>
+  </si>
+  <si>
+    <t>Add Cheese Pizza and extra toppings incl. olives &amp; onions to the cart, proceed to order</t>
+  </si>
+  <si>
+    <t>Add Classic Deluxe Pizza and extra toppings incl. pepperoni to the cart, proceed to order</t>
+  </si>
+  <si>
+    <t>Add Cheese Pizza and extra toppings incl. onions &amp; peppers to the cart, proceed to order</t>
+  </si>
+  <si>
+    <t>Schedule_Time_5</t>
+  </si>
+  <si>
+    <t>Test times out. Pop up box confirming cart order times out before moving onto the next page test.</t>
+  </si>
+  <si>
+    <t>Schedule_Time_6</t>
+  </si>
+  <si>
+    <t>Select 'Later' service, check date within one week period, hour: 14, Minute: 00, click confirm button, check Order Receipt Page</t>
+  </si>
+  <si>
+    <t>Schedule_Time_7</t>
+  </si>
+  <si>
+    <t>Schedule_Time_8</t>
+  </si>
+  <si>
+    <t>Schedule_Time_9</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_14</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_15</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_16</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_17</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_18</t>
+  </si>
+  <si>
+    <t>Correct pizza and collection service is presented within the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Under the order page, select the appropriate pizza and select the desired collection service</t>
+  </si>
+  <si>
+    <t>Correct pizza and toppings, and collection service is presented within the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Select 'Later' service, check date within one week period, hour: 16, Minute: 45, click confirm button, check Order Receipt Page</t>
+  </si>
+  <si>
+    <t>Schedule_Time_10</t>
+  </si>
+  <si>
+    <t>The time shown for the now collection service is 10 mins over the required posting of just 20 mins.</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_19</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_20</t>
+  </si>
+  <si>
+    <t>The Order Receipt page should show a 20 minute collection window for the selected pizza</t>
+  </si>
+  <si>
+    <t>The Order Receipt page should show the correct date and time for collection of the pizza</t>
+  </si>
+  <si>
+    <t>Under the Order Receipt Page, select the 'Now' service to check the collection time details</t>
+  </si>
+  <si>
+    <t>Under the Order Receipt Page, select the 'Later' service to check the collection time details</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_8</t>
+  </si>
+  <si>
+    <t>To show that textual content on the page does not contain spelling or grammatical errors</t>
+  </si>
+  <si>
+    <t>Check times within the 'Later' Service are listed correctly</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_21</t>
+  </si>
+  <si>
+    <t>Hour box has labelled  24 hours when this isn't a valid time</t>
+  </si>
+  <si>
+    <t>No spelling or grammatical errors expected</t>
+  </si>
+  <si>
+    <t>Go to Order Schedule page under the 'Later' service and check for mistakes</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_1</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_2</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_3</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_4</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_5</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_6</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_7</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_8</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_9</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_10</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_11</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_12</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_13</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_14</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_15</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_16</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_17</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_18</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_19</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_20</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_21</t>
+  </si>
+  <si>
+    <t>Check Schedule Order Pages for company logo at header of web page</t>
+  </si>
+  <si>
+    <t>Add a pizza type to the cart, proceed to order</t>
+  </si>
+  <si>
+    <t>Check Schedule Order Pages for copyright and site info at the footer of the web page</t>
+  </si>
+  <si>
+    <t>Check Schedule Order Pages for appropriate validation applied for user input parts</t>
+  </si>
+  <si>
+    <t>Check Schedule Order Pages for a title</t>
+  </si>
+  <si>
+    <t>The system should have a functioning Schedule Web page</t>
+  </si>
+  <si>
+    <t>Only Logged in users can access the Schedule Order web page</t>
+  </si>
+  <si>
+    <t>Use Login: email@qub.ac.uk     Use Password: password                 Proceed with a order</t>
+  </si>
+  <si>
+    <t>Check common navigation of other web pages from Schedule Order page</t>
+  </si>
+  <si>
+    <t>From Schedule Order page the user can navigate to Home, Order, About and Contact</t>
+  </si>
+  <si>
+    <t>Proceed with a order</t>
+  </si>
+  <si>
+    <t>From the Schedule Order page, a logged user can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Schedule Order page</t>
+  </si>
+  <si>
+    <t>The system should prevent unregistered users accessing the Schedule Order page</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a mobile device</t>
+  </si>
+  <si>
+    <t>Display Schedule page on a Amazon Kindle Fire (7 inch)</t>
+  </si>
+  <si>
+    <t>Display Schedule page on a iPad 4</t>
+  </si>
+  <si>
+    <t>Display Schedule page on a iPhone 6</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a Chrome Browser (version 36)</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on Firefox V31</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_9</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_10</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_11</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_12</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_13</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_14</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_15</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_16</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_17</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_18</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_19</t>
+  </si>
+  <si>
+    <t>Schedule_Tconn_20</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_22</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_23</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_24</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_25</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_26</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_27</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_28</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_29</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_30</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_31</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_32</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_33</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_34</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_35</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_36</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_37</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_38</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.1</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.2</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.3</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.4</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.5</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.6</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.7</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.8</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.10</t>
+  </si>
+  <si>
+    <t>Requirements 3.2.1</t>
+  </si>
+  <si>
+    <t>Requirements 3.2.2</t>
+  </si>
+  <si>
+    <t>To check the company lgog is displayed at the header of the Schedule page</t>
+  </si>
+  <si>
+    <t>To check that the footer of the Schedule web page has copyright and site version information</t>
+  </si>
+  <si>
+    <t>To check user validation is applied to the Time, Minute and calendar date selection under 'Later' service</t>
+  </si>
+  <si>
+    <t>To check if the Schedule page has a title</t>
+  </si>
+  <si>
+    <t>To see if the Schedulepage functions correctly as specified for Requirements 4.1.31 to 4.1.33</t>
+  </si>
+  <si>
+    <t>To ensure only logged in users can acess the Schedule web page</t>
+  </si>
+  <si>
+    <t>To see if common navigation is accessible from the Schedule web page</t>
+  </si>
+  <si>
+    <t>To check that the common navigation from the Schedule web page is towards the Home, Order, About and Contact web pages</t>
+  </si>
+  <si>
+    <t>To ensure all logged users can navigate to the reset password page, and that logged users can log off from the Schedule web page</t>
+  </si>
+  <si>
+    <t>To check that unregistered users or not logged in users can't access the Schedule web page (only restricted to logged in users)</t>
+  </si>
+  <si>
+    <t>To check the Schedule web page works on mobile devices</t>
+  </si>
+  <si>
+    <t>To check the Schedule web page works on different browser types</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_22</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_23</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_24</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_25</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_26</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_27</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_28</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_29</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_30</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_31</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_32</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_33</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_34</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_35</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_36</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_37</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_38</t>
+  </si>
+  <si>
+    <t>Go to Schedule Order Page to check the company logo is a  header of the web page</t>
+  </si>
+  <si>
+    <t>Under Schedule Order Pages check for copyright and site info at the footer of the web page</t>
+  </si>
+  <si>
+    <t>Check for a appropriate title for Schedule Order Page</t>
+  </si>
+  <si>
+    <t>The functionality of Schedule Web page for the 'Now' and 'Later' service need to be tested</t>
+  </si>
+  <si>
+    <t>Logged in users can only access the Schedule Order web page</t>
+  </si>
+  <si>
+    <t>Common navigation of other web pages from Schedule Order page</t>
+  </si>
+  <si>
+    <t>Navigation to Home, Order, About and Contact web pages from the Schedule web page is required</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a ipad device</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a iPhone device</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a Amazon Kindle device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Schedule Order page on a Chrome Web Browser </t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a version of Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Schedule Order page on  a version of Internet Explorer </t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on Internet Explorer 11</t>
+  </si>
+  <si>
+    <t>Logo of the company appears at the top of the web page</t>
+  </si>
+  <si>
+    <t>Required information is stated under the web page footer</t>
+  </si>
+  <si>
+    <t>Validation is checked to be functioning</t>
+  </si>
+  <si>
+    <t>Title is clearly visible</t>
+  </si>
+  <si>
+    <t>Services function as intended</t>
+  </si>
+  <si>
+    <t>Only logged users have access</t>
+  </si>
+  <si>
+    <t>Other web pages are accessible from Schedule web page</t>
+  </si>
+  <si>
+    <t>Reset password page is accessible here</t>
+  </si>
+  <si>
+    <t>Log off is possible here</t>
+  </si>
+  <si>
+    <t>Restriction to Schedule web page is achieved here for non-logged users</t>
+  </si>
+  <si>
+    <t>Schedule Order web page opens as intended</t>
+  </si>
+  <si>
+    <t>Schedule_Time_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error messages appear to indicate the validation works accordingly, although entering dates for ordering under the 'Later' service shows orders more than a week old will still process through even though this should be prevented </t>
+  </si>
+  <si>
+    <t>Title is visible at the top of the web page and states Order (ideally state Schedule Order)</t>
+  </si>
+  <si>
+    <t>Web page appears zoomed out when using this device</t>
+  </si>
+  <si>
+    <t>The Schedule Order page is well positioned and readable using this device</t>
+  </si>
+  <si>
+    <t>Web page appears well positioned and readable using this device</t>
+  </si>
+  <si>
+    <t>All contents of the Schedule Order page are easy to read and function correctly using this browser</t>
   </si>
 </sst>
 </file>
@@ -801,7 +1299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +1333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -924,9 +1428,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -976,6 +1477,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,6 +1549,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1045,6 +1559,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1054,6 +1569,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1070,16 +1586,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$26:$T$28</c:f>
+              <c:f>'Test Cases'!$T$22:$T$25</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Passed</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Failed</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Not execited</c:v>
                 </c:pt>
               </c:strCache>
@@ -1087,17 +1603,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$26:$U$28</c:f>
+              <c:f>'Test Cases'!$U$22:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1118,6 +1634,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1159,7 +1676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$44:$T$48</c:f>
+              <c:f>'Test Cases'!$T$41:$T$45</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1182,7 +1699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$44:$U$48</c:f>
+              <c:f>'Test Cases'!$U$41:$U$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1190,10 +1707,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -1214,11 +1731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41196544"/>
-        <c:axId val="41218816"/>
+        <c:axId val="87948288"/>
+        <c:axId val="87962368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41196544"/>
+        <c:axId val="87948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41218816"/>
+        <c:crossAx val="87962368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41218816"/>
+        <c:axId val="87962368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41196544"/>
+        <c:crossAx val="87948288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,13 +1786,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>46567</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1299,13 +1816,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1652,10 +2169,10 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,28 +2183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1698,13 +2215,13 @@
     </row>
     <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1713,13 +2230,13 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1730,13 +2247,13 @@
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1747,13 +2264,13 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1764,13 +2281,13 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -1781,13 +2298,13 @@
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1796,35 +2313,187 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,7 +2505,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1849,19 +2518,20 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
@@ -1875,68 +2545,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.95" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -1944,11 +2614,11 @@
       <c r="G2" s="13">
         <v>42074</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -1963,19 +2633,19 @@
     </row>
     <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -1983,11 +2653,11 @@
       <c r="G3" s="13">
         <v>42074</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2000,19 +2670,19 @@
     </row>
     <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
@@ -2020,11 +2690,11 @@
       <c r="G4" s="13">
         <v>42074</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
@@ -2033,25 +2703,25 @@
       <c r="N4" s="3"/>
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -2059,11 +2729,11 @@
       <c r="G5" s="13">
         <v>42074</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
@@ -2072,23 +2742,23 @@
       <c r="N5" s="3"/>
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
-      <c r="T5" s="28"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>27</v>
@@ -2096,11 +2766,11 @@
       <c r="G6" s="13">
         <v>42074</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
@@ -2109,23 +2779,23 @@
       <c r="N6" s="3"/>
       <c r="O6" s="9"/>
       <c r="P6" s="10"/>
-      <c r="T6" s="28"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -2133,14 +2803,14 @@
       <c r="G7" s="13">
         <v>42074</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>33</v>
@@ -2153,26 +2823,26 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="T7" s="28"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>27</v>
@@ -2180,11 +2850,11 @@
       <c r="G8" s="13">
         <v>42074</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -2193,23 +2863,23 @@
       <c r="N8" s="3"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
-      <c r="T8" s="28"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -2217,11 +2887,11 @@
       <c r="G9" s="13">
         <v>42074</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -2230,23 +2900,23 @@
       <c r="N9" s="3"/>
       <c r="O9" s="9"/>
       <c r="P9" s="10"/>
-      <c r="T9" s="28"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -2254,14 +2924,14 @@
       <c r="G10" s="13">
         <v>42074</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
@@ -2274,26 +2944,26 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="T10" s="28"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="114" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -2301,14 +2971,14 @@
       <c r="G11" s="13">
         <v>42074</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -2321,7 +2991,7 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Z11" s="5" t="s">
@@ -2330,31 +3000,31 @@
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -2367,34 +3037,34 @@
     </row>
     <row r="13" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>33</v>
@@ -2407,26 +3077,26 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>6</v>
@@ -2434,11 +3104,11 @@
       <c r="G14" s="13">
         <v>42074</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -2450,155 +3120,309 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="33">
+        <v>42075</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="33">
+        <v>42075</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="33">
+        <v>42075</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="33">
+        <v>42075</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="33">
+        <v>42075</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="F20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="J20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="33">
+        <v>42076</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="13">
+        <v>42075</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="14"/>
       <c r="J21" s="9"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2606,196 +3430,336 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="B22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="10"/>
+      <c r="T22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="31">
+        <f>COUNTIF(H2:H105,"*Passed*")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="31">
+        <f>COUNTIF(H4:H105,"*Failed*")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="T25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="U25" s="31">
+        <f>COUNTIF(H11:H105,"*Not*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="33">
+        <v>42076</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="P26" s="10"/>
-      <c r="T26" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" s="32">
-        <f>COUNTIF(H2:H108,"*Passed*")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="10"/>
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="T27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="32">
-        <f>COUNTIF(H4:H108,"*Failed*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="10"/>
+    </row>
+    <row r="28" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="T28" t="s">
-        <v>54</v>
-      </c>
-      <c r="U28" s="32">
-        <f>COUNTIF(H11:H108,"*Not*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="10"/>
+    </row>
+    <row r="29" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="10"/>
+    <row r="30" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -2804,13 +3768,34 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="10"/>
+    <row r="31" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2819,13 +3804,34 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="10"/>
+    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2834,13 +3840,34 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="10"/>
+    <row r="33" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -2849,13 +3876,34 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="10"/>
+    <row r="34" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -2864,13 +3912,34 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="10"/>
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -2879,13 +3948,34 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="10"/>
+    <row r="36" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -2894,12 +3984,34 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="10"/>
+    <row r="37" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -2908,12 +4020,34 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="10"/>
+    <row r="38" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2922,12 +4056,34 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="10"/>
+    <row r="39" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2936,12 +4092,34 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="2:21" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="10"/>
+    <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="13">
+        <v>42076</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -2949,12 +4127,15 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="27"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2963,12 +4144,19 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" s="31">
+        <f>COUNTIF(L2:L65,"*Minor*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="27"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2977,12 +4165,19 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="31">
+        <f>COUNTIF(L2:L21,"*Moderate*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2992,14 +4187,18 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="T43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="U43" s="31">
+        <f>COUNTIF(L2:L21,"*Major*")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -3009,18 +4208,18 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="T44" t="s">
-        <v>34</v>
-      </c>
-      <c r="U44" s="32">
-        <f>COUNTIF(L2:L68,"*Minor*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="U44" s="31">
+        <f>COUNTIF(L2:L21,"*Critical*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="27"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -3030,18 +4229,18 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="T45" t="s">
-        <v>57</v>
-      </c>
-      <c r="U45" s="32">
-        <f>COUNTIF(L2:L25,"*Moderate*")</f>
+        <v>38</v>
+      </c>
+      <c r="U45" s="31">
+        <f>COUNTIF(L2:L21,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3050,19 +4249,12 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="T46" t="s">
-        <v>35</v>
-      </c>
-      <c r="U46" s="32">
-        <f>COUNTIF(L2:L25,"*Major*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="27"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -3071,19 +4263,12 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="T47" t="s">
-        <v>36</v>
-      </c>
-      <c r="U47" s="32">
-        <f>COUNTIF(L2:L25,"*Critical*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3092,19 +4277,12 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="T48" t="s">
-        <v>38</v>
-      </c>
-      <c r="U48" s="32">
-        <f>COUNTIF(L2:L25,"*Cometic*")</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -3118,7 +4296,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -3132,7 +4310,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="27"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -3146,7 +4324,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="27"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3160,7 +4338,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="27"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -3174,7 +4352,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -3188,7 +4366,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -3202,7 +4380,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -3216,7 +4394,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -3230,7 +4408,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -3244,7 +4422,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="27"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -3258,7 +4436,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="27"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -3272,7 +4450,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="27"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -3286,7 +4464,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="27"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -3300,7 +4478,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="27"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -3314,7 +4492,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="27"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -3328,7 +4506,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="27"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -3342,7 +4520,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="27"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -3356,7 +4534,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="27"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -3370,7 +4548,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="27"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -3384,7 +4562,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="27"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -3398,7 +4576,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="27"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -3412,7 +4590,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="27"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -3426,7 +4604,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -3440,7 +4618,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
-      <c r="H73" s="27"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -3454,7 +4632,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="27"/>
+      <c r="H74" s="26"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -3468,7 +4646,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -3482,7 +4660,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="27"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -3496,7 +4674,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="27"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -3510,7 +4688,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -3524,7 +4702,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -3538,7 +4716,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="27"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -3552,7 +4730,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -3566,7 +4744,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -3580,7 +4758,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -3594,7 +4772,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="26"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -3608,7 +4786,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="26"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -3622,7 +4800,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="26"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -3636,7 +4814,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="26"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -3650,7 +4828,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="26"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -3664,7 +4842,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="26"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -3678,7 +4856,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="26"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -3692,7 +4870,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -3706,7 +4884,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -3720,7 +4898,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="26"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3734,7 +4912,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="26"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -3748,7 +4926,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="26"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -3762,7 +4940,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="26"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -3776,7 +4954,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="26"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -3790,7 +4968,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="26"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -3804,7 +4982,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="26"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3818,7 +4996,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -3832,7 +5010,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="26"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
@@ -3846,7 +5024,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="27"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -3860,7 +5038,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="27"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -3874,7 +5052,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="27"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -3888,7 +5066,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="27"/>
+      <c r="H105" s="26"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -3902,7 +5080,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="27"/>
+      <c r="H106" s="26"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -3916,7 +5094,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="27"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -3930,7 +5108,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="27"/>
+      <c r="H108" s="26"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -3944,7 +5122,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="27"/>
+      <c r="H109" s="26"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -3958,7 +5136,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="27"/>
+      <c r="H110" s="26"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -3972,7 +5150,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="27"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -3986,7 +5164,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="27"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -4000,7 +5178,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="27"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -4014,7 +5192,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="26"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -4028,7 +5206,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="27"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -4042,7 +5220,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="27"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -4056,7 +5234,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="27"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -4070,7 +5248,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="26"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -4084,7 +5262,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="26"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -4098,7 +5276,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -4112,7 +5290,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="26"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -4126,7 +5304,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="26"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -4140,7 +5318,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="26"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -4154,7 +5332,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="27"/>
+      <c r="H124" s="26"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -4168,7 +5346,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="27"/>
+      <c r="H125" s="26"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -4182,7 +5360,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
-      <c r="H126" s="27"/>
+      <c r="H126" s="26"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -4196,7 +5374,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
-      <c r="H127" s="27"/>
+      <c r="H127" s="26"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -4210,7 +5388,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="27"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -4224,7 +5402,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="27"/>
+      <c r="H129" s="26"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -4238,7 +5416,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="27"/>
+      <c r="H130" s="26"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -4252,7 +5430,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
-      <c r="H131" s="27"/>
+      <c r="H131" s="26"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -4266,7 +5444,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="27"/>
+      <c r="H132" s="26"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -4280,7 +5458,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="27"/>
+      <c r="H133" s="26"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -4294,7 +5472,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
-      <c r="H134" s="27"/>
+      <c r="H134" s="26"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -4308,7 +5486,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="27"/>
+      <c r="H135" s="26"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -4322,7 +5500,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
-      <c r="H136" s="27"/>
+      <c r="H136" s="26"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -4336,7 +5514,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="27"/>
+      <c r="H137" s="26"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -4350,7 +5528,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="27"/>
+      <c r="H138" s="26"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -4364,7 +5542,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="27"/>
+      <c r="H139" s="26"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -4378,7 +5556,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="27"/>
+      <c r="H140" s="26"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -4392,7 +5570,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="27"/>
+      <c r="H141" s="26"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -4406,7 +5584,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="27"/>
+      <c r="H142" s="26"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -4420,7 +5598,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="27"/>
+      <c r="H143" s="26"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -4434,7 +5612,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="27"/>
+      <c r="H144" s="26"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -4448,7 +5626,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
-      <c r="H145" s="27"/>
+      <c r="H145" s="26"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -4462,7 +5640,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="27"/>
+      <c r="H146" s="26"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -4476,7 +5654,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="27"/>
+      <c r="H147" s="26"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -4490,7 +5668,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
-      <c r="H148" s="27"/>
+      <c r="H148" s="26"/>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -4504,7 +5682,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="27"/>
+      <c r="H149" s="26"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -4518,7 +5696,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="27"/>
+      <c r="H150" s="26"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -4532,7 +5710,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="26"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -4546,7 +5724,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="26"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -4560,7 +5738,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="26"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -4574,7 +5752,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="26"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -4588,7 +5766,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="26"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
@@ -4602,7 +5780,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="26"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
@@ -4616,7 +5794,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="27"/>
+      <c r="H157" s="26"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -4630,7 +5808,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="26"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -4644,7 +5822,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="27"/>
+      <c r="H159" s="26"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -4658,7 +5836,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="11"/>
       <c r="G160" s="10"/>
-      <c r="H160" s="27"/>
+      <c r="H160" s="26"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
@@ -4672,7 +5850,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="11"/>
       <c r="G161" s="10"/>
-      <c r="H161" s="27"/>
+      <c r="H161" s="26"/>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
@@ -4686,7 +5864,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="11"/>
       <c r="G162" s="10"/>
-      <c r="H162" s="27"/>
+      <c r="H162" s="26"/>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
@@ -4700,7 +5878,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="11"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="27"/>
+      <c r="H163" s="26"/>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10"/>
@@ -4714,7 +5892,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="11"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="27"/>
+      <c r="H164" s="26"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
@@ -4728,7 +5906,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="11"/>
       <c r="G165" s="10"/>
-      <c r="H165" s="27"/>
+      <c r="H165" s="26"/>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
       <c r="K165" s="10"/>
@@ -4742,7 +5920,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="11"/>
       <c r="G166" s="10"/>
-      <c r="H166" s="27"/>
+      <c r="H166" s="26"/>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
       <c r="K166" s="10"/>
@@ -4756,7 +5934,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="11"/>
       <c r="G167" s="10"/>
-      <c r="H167" s="27"/>
+      <c r="H167" s="26"/>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
       <c r="K167" s="10"/>
@@ -4770,7 +5948,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="11"/>
       <c r="G168" s="10"/>
-      <c r="H168" s="27"/>
+      <c r="H168" s="26"/>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
       <c r="K168" s="10"/>
@@ -4784,7 +5962,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="11"/>
       <c r="G169" s="10"/>
-      <c r="H169" s="27"/>
+      <c r="H169" s="26"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -4798,7 +5976,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="11"/>
       <c r="G170" s="10"/>
-      <c r="H170" s="27"/>
+      <c r="H170" s="26"/>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -4812,7 +5990,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="11"/>
       <c r="G171" s="10"/>
-      <c r="H171" s="27"/>
+      <c r="H171" s="26"/>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
       <c r="K171" s="10"/>
@@ -4826,7 +6004,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="11"/>
       <c r="G172" s="10"/>
-      <c r="H172" s="27"/>
+      <c r="H172" s="26"/>
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
@@ -4840,7 +6018,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="11"/>
       <c r="G173" s="10"/>
-      <c r="H173" s="27"/>
+      <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
@@ -4854,7 +6032,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="11"/>
       <c r="G174" s="10"/>
-      <c r="H174" s="27"/>
+      <c r="H174" s="10"/>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
@@ -4866,9 +6044,9 @@
     </row>
     <row r="175" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E175" s="10"/>
-      <c r="F175" s="11"/>
+      <c r="F175" s="10"/>
       <c r="G175" s="10"/>
-      <c r="H175" s="27"/>
+      <c r="H175" s="10"/>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
@@ -4880,7 +6058,7 @@
     </row>
     <row r="176" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E176" s="10"/>
-      <c r="F176" s="11"/>
+      <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -4892,52 +6070,10 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E177" s="10"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="10"/>
-      <c r="O177" s="10"/>
-      <c r="P177" s="10"/>
-    </row>
-    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="10"/>
-      <c r="M178" s="10"/>
-      <c r="N178" s="10"/>
-      <c r="O178" s="10"/>
-      <c r="P178" s="10"/>
-    </row>
-    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
-      <c r="L179" s="10"/>
-      <c r="M179" s="10"/>
-      <c r="N179" s="10"/>
-      <c r="O179" s="10"/>
-      <c r="P179" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H62:H177">
+  <conditionalFormatting sqref="H59:H174">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4951,25 +6087,25 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H61</xm:sqref>
+          <xm:sqref>H2:H58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F177</xm:sqref>
+          <xm:sqref>F2:F174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L25</xm:sqref>
+          <xm:sqref>L2:L21 L26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K29</xm:sqref>
+          <xm:sqref>K2:K26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4982,15 +6118,16 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
@@ -4999,19 +6136,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1"/>
@@ -5026,22 +6163,22 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1"/>
@@ -5052,19 +6189,19 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -5077,19 +6214,19 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>143</v>
+        <v>183</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5102,19 +6239,19 @@
     </row>
     <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5127,19 +6264,19 @@
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5152,19 +6289,19 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5177,19 +6314,19 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5202,19 +6339,19 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5227,19 +6364,19 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5252,19 +6389,19 @@
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5277,19 +6414,19 @@
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5302,19 +6439,19 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5327,19 +6464,19 @@
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5350,13 +6487,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5367,12 +6512,22 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5382,12 +6537,22 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5397,12 +6562,22 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5412,12 +6587,22 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5426,6 +6611,346 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5462,7 +6987,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -5476,7 +7001,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -5490,7 +7015,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -5674,8 +7199,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
+++ b/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="334">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1200,6 +1200,39 @@
   </si>
   <si>
     <t>All contents of the Schedule Order page are easy to read and function correctly using this browser</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_39</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_40</t>
+  </si>
+  <si>
+    <t>Highlight 'Later' button, click Confirm button, select 25 December '15, Hour: 11, Minute: 00</t>
+  </si>
+  <si>
+    <t>Schedule_Time_12</t>
+  </si>
+  <si>
+    <t>Highlight 'Later' button, click Confirm button, select 06 April '15, Hour: 15, Minute: 45</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_39</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_40</t>
+  </si>
+  <si>
+    <t>Within the Later service under the order schedule section, set order date to Christmas Day.</t>
+  </si>
+  <si>
+    <t>Denied order. Order is void due to this being a public holiday.</t>
+  </si>
+  <si>
+    <t>Within the Later service under the order schedule section, set order date to Easter Monday.</t>
+  </si>
+  <si>
+    <t>Order complete. Order Receipt Page appears  due to being open on this public holiday.</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1582,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1559,7 +1591,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1569,7 +1600,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1608,10 +1638,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1634,7 +1664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1731,11 +1760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87948288"/>
-        <c:axId val="87962368"/>
+        <c:axId val="88449024"/>
+        <c:axId val="88450560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87948288"/>
+        <c:axId val="88449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87962368"/>
+        <c:crossAx val="88450560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87962368"/>
+        <c:axId val="88450560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87948288"/>
+        <c:crossAx val="88449024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,8 +2200,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,7 +3499,7 @@
       </c>
       <c r="U22" s="31">
         <f>COUNTIF(H2:H105,"*Passed*")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3532,7 +3561,7 @@
       </c>
       <c r="U24" s="31">
         <f>COUNTIF(H4:H105,"*Failed*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="57" x14ac:dyDescent="0.25">
@@ -4131,18 +4160,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="13">
+        <v>42097</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="33">
+        <v>42097</v>
+      </c>
       <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="O41" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="P41" s="10"/>
       <c r="T41" t="s">
         <v>34</v>
@@ -4152,18 +4213,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="13">
+        <v>42097</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="O42" s="3"/>
       <c r="P42" s="10"/>
       <c r="T42" t="s">
         <v>57</v>
@@ -6099,13 +6182,13 @@
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L21 L26</xm:sqref>
+          <xm:sqref>L2:L21 L26 L41:L42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K26</xm:sqref>
+          <xm:sqref>K2:K26 K41:K42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6118,10 +6201,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,6 +7033,40 @@
       </c>
       <c r="E39" s="1" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7044,6 +7161,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7157,22 +7289,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7186,27 +7326,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
+++ b/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="343">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1019,9 +1019,6 @@
     <t>Requirements 3.2.2</t>
   </si>
   <si>
-    <t>To check the company lgog is displayed at the header of the Schedule page</t>
-  </si>
-  <si>
     <t>To check that the footer of the Schedule web page has copyright and site version information</t>
   </si>
   <si>
@@ -1233,6 +1230,36 @@
   </si>
   <si>
     <t>Order complete. Order Receipt Page appears  due to being open on this public holiday.</t>
+  </si>
+  <si>
+    <t>To check the company logo is displayed at the header of the Schedule page</t>
+  </si>
+  <si>
+    <t>Display Schedule page on a Google Nexus 10</t>
+  </si>
+  <si>
+    <t>Display Schedule page on a Samsung Galaxy  S4</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_41</t>
+  </si>
+  <si>
+    <t>ScheduleOrder_42</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_41</t>
+  </si>
+  <si>
+    <t>Sch_Tproc_42</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a Google Nexus 10 device</t>
+  </si>
+  <si>
+    <t>Test Schedule Order page on a Samsung Galaxy S4 device</t>
+  </si>
+  <si>
+    <t>Logo does appear; although a water mark has been left within the logo image</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1665,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -1705,7 +1732,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$41:$T$45</c:f>
+              <c:f>'Test Cases'!$T$43:$T$47</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1728,7 +1755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$41:$U$45</c:f>
+              <c:f>'Test Cases'!$U$43:$U$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1760,11 +1787,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88449024"/>
-        <c:axId val="88450560"/>
+        <c:axId val="84214144"/>
+        <c:axId val="84215680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88449024"/>
+        <c:axId val="84214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88450560"/>
+        <c:crossAx val="84215680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,7 +1808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88450560"/>
+        <c:axId val="84215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88449024"/>
+        <c:crossAx val="84214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1845,13 +1872,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2200,8 +2227,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2388,7 @@
         <v>222</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>251</v>
@@ -2375,7 +2402,7 @@
         <v>223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>252</v>
@@ -2389,7 +2416,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>253</v>
@@ -2403,7 +2430,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>254</v>
@@ -2417,7 +2444,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>255</v>
@@ -2431,7 +2458,7 @@
         <v>227</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>256</v>
@@ -2445,7 +2472,7 @@
         <v>228</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>257</v>
@@ -2459,7 +2486,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>258</v>
@@ -2473,7 +2500,7 @@
         <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>259</v>
@@ -2487,7 +2514,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>260</v>
@@ -2501,7 +2528,7 @@
         <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>261</v>
@@ -2515,7 +2542,7 @@
         <v>233</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>261</v>
@@ -2547,10 +2574,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z176"/>
+  <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,8 +3525,8 @@
         <v>53</v>
       </c>
       <c r="U22" s="31">
-        <f>COUNTIF(H2:H105,"*Passed*")</f>
-        <v>27</v>
+        <f>COUNTIF(H2:H107,"*Passed*")</f>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3560,7 +3587,7 @@
         <v>25</v>
       </c>
       <c r="U24" s="31">
-        <f>COUNTIF(H4:H105,"*Failed*")</f>
+        <f>COUNTIF(H4:H107,"*Failed*")</f>
         <v>12</v>
       </c>
     </row>
@@ -3603,7 +3630,7 @@
         <v>54</v>
       </c>
       <c r="U25" s="31">
-        <f>COUNTIF(H11:H105,"*Not*")</f>
+        <f>COUNTIF(H11:H107,"*Not*")</f>
         <v>0</v>
       </c>
     </row>
@@ -3636,7 +3663,7 @@
         <v>66</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>33</v>
@@ -3649,7 +3676,7 @@
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P26" s="10"/>
     </row>
@@ -4049,27 +4076,27 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="13">
-        <v>42076</v>
+        <v>42108</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>24</v>
@@ -4085,27 +4112,27 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G39" s="13">
-        <v>42076</v>
+        <v>42108</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>24</v>
@@ -4121,12 +4148,12 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>212</v>
@@ -4156,84 +4183,64 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="T40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G41" s="13">
-        <v>42097</v>
+        <v>42076</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" s="33">
-        <v>42097</v>
-      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="T41" t="s">
-        <v>34</v>
-      </c>
-      <c r="U41" s="31">
-        <f>COUNTIF(L2:L65,"*Minor*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>327</v>
+        <v>221</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G42" s="13">
-        <v>42097</v>
+        <v>42076</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>24</v>
@@ -4241,61 +4248,111 @@
       <c r="I42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="33"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="3"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="T42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="13">
+        <v>42097</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="33">
+        <v>42097</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="10"/>
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" s="31">
+        <f>COUNTIF(L2:L67,"*Minor*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="13">
+        <v>42097</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="10"/>
+      <c r="T44" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="31">
+      <c r="U44" s="31">
         <f>COUNTIF(L2:L21,"*Moderate*")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="T43" t="s">
-        <v>35</v>
-      </c>
-      <c r="U43" s="31">
-        <f>COUNTIF(L2:L21,"*Major*")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="T44" t="s">
-        <v>36</v>
-      </c>
-      <c r="U44" s="31">
-        <f>COUNTIF(L2:L21,"*Critical*")</f>
-        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4312,11 +4369,11 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="T45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U45" s="31">
-        <f>COUNTIF(L2:L21,"*Cometic*")</f>
-        <v>0</v>
+        <f>COUNTIF(L2:L21,"*Major*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -4332,6 +4389,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
+      <c r="T46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U46" s="31">
+        <f>COUNTIF(L2:L21,"*Critical*")</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="10"/>
@@ -4346,6 +4410,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
+      <c r="T47" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" s="31">
+        <f>COUNTIF(L2:L21,"*Cometic*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
@@ -6101,7 +6172,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="11"/>
       <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="26"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
@@ -6115,7 +6186,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="11"/>
       <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
+      <c r="H174" s="26"/>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
@@ -6127,7 +6198,7 @@
     </row>
     <row r="175" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
+      <c r="F175" s="11"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
@@ -6141,7 +6212,7 @@
     </row>
     <row r="176" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
+      <c r="F176" s="11"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -6153,10 +6224,38 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
+    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+    </row>
+    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H59:H174">
+  <conditionalFormatting sqref="H61:H176">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6170,25 +6269,25 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H58</xm:sqref>
+          <xm:sqref>H2:H60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F174</xm:sqref>
+          <xm:sqref>F2:F176</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L21 L26 L41:L42</xm:sqref>
+          <xm:sqref>L2:L21 L26 L43:L44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K26 K41:K42</xm:sqref>
+          <xm:sqref>K2:K26 K43:K44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6201,10 +6300,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,35 +6845,35 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>122</v>
@@ -6782,7 +6881,7 @@
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>236</v>
@@ -6791,7 +6890,7 @@
         <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>122</v>
@@ -6799,33 +6898,33 @@
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>122</v>
@@ -6833,16 +6932,16 @@
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>122</v>
@@ -6850,16 +6949,16 @@
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>122</v>
@@ -6867,16 +6966,16 @@
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>122</v>
@@ -6884,7 +6983,7 @@
     </row>
     <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>242</v>
@@ -6893,7 +6992,7 @@
         <v>213</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>122</v>
@@ -6901,7 +7000,7 @@
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>243</v>
@@ -6910,7 +7009,7 @@
         <v>214</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>122</v>
@@ -6918,7 +7017,7 @@
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>244</v>
@@ -6927,7 +7026,7 @@
         <v>215</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>122</v>
@@ -6935,137 +7034,171 @@
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7161,21 +7294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7289,17 +7407,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7313,17 +7447,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
+++ b/Testing Spreadsheet v1.0 OrderSchedulePage, Steven Kennedy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="35940" yWindow="3620" windowWidth="26520" windowHeight="15280" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,12 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="344">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -530,9 +535,6 @@
     <t>To show a logined user can order a pizza for a later collection within a period of 1 week from order.</t>
   </si>
   <si>
-    <t>To check the logined user can select a appriopriate date and time for a later pizza collection within the 1 week window. Checking if error messages appear or  if the order button will function when a error date/time is selected.</t>
-  </si>
-  <si>
     <t>To show the various pizzas selected to go forward to the order schedule will actually process correctly here.</t>
   </si>
   <si>
@@ -1260,6 +1262,12 @@
   </si>
   <si>
     <t>Logo does appear; although a water mark has been left within the logo image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even when a message told the user that the date entered was outside the validation for ordering within a month, the confirm button was still usable and functioned correctly. </t>
+  </si>
+  <si>
+    <t>To check the logined user can select a appriopriate date and time for a later pizza collection within the 1 week window. Checking if error messages appear or  if the order button will function when an error date/time is selected.</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1595,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1665,13 +1673,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1716,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1760,19 +1768,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,11 +1795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84214144"/>
-        <c:axId val="84215680"/>
+        <c:axId val="2130840888"/>
+        <c:axId val="2130837928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84214144"/>
+        <c:axId val="2130840888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84215680"/>
+        <c:crossAx val="2130837928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1808,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84215680"/>
+        <c:axId val="2130837928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84214144"/>
+        <c:crossAx val="2130840888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2194,12 +2202,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2217,28 +2225,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
@@ -2260,7 +2273,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -2269,7 +2282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
@@ -2284,7 +2297,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -2301,12 +2314,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="56">
       <c r="A5" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
@@ -2318,12 +2331,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>95</v>
@@ -2335,12 +2348,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>93</v>
@@ -2352,12 +2365,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
@@ -2369,12 +2382,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28">
       <c r="A9" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>95</v>
@@ -2383,169 +2396,169 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28">
       <c r="A11" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28">
       <c r="A12" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28">
       <c r="A13" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28">
       <c r="A14" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28">
       <c r="A15" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28">
       <c r="A16" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42">
       <c r="A17" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42">
       <c r="A18" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="48.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28">
       <c r="A20" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28">
       <c r="A21" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
@@ -2565,42 +2578,45 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="41.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2648,9 +2664,9 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="39">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>58</v>
@@ -2687,9 +2703,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="39">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>68</v>
@@ -2724,9 +2740,9 @@
       <c r="P3" s="10"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="39">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
@@ -2763,9 +2779,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="39">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>60</v>
@@ -2800,9 +2816,9 @@
       <c r="P5" s="10"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="39">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>60</v>
@@ -2837,9 +2853,9 @@
       <c r="P6" s="10"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="59.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>90</v>
@@ -2884,9 +2900,9 @@
       <c r="P7" s="10"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="39">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>60</v>
@@ -2921,9 +2937,9 @@
       <c r="P8" s="10"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="39">
       <c r="A9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>79</v>
@@ -2958,9 +2974,9 @@
       <c r="P9" s="10"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3000,14 +3016,14 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="91">
       <c r="A11" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>90</v>
@@ -3054,9 +3070,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="39">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>90</v>
@@ -3065,7 +3081,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>76</v>
@@ -3074,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>24</v>
@@ -3091,9 +3107,9 @@
       <c r="P12" s="10"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="65">
       <c r="A13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>90</v>
@@ -3102,7 +3118,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>76</v>
@@ -3111,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>25</v>
@@ -3120,7 +3136,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>33</v>
@@ -3133,14 +3149,14 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="39">
       <c r="A14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -3149,7 +3165,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>76</v>
@@ -3175,18 +3191,18 @@
       <c r="P14" s="10"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="52">
       <c r="A15" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>78</v>
@@ -3204,7 +3220,7 @@
         <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>33</v>
@@ -3217,22 +3233,22 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="52">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>78</v>
@@ -3250,7 +3266,7 @@
         <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>33</v>
@@ -3263,13 +3279,13 @@
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="52">
       <c r="A17" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -3278,7 +3294,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>78</v>
@@ -3296,7 +3312,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -3309,22 +3325,22 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="52">
       <c r="A18" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>78</v>
@@ -3342,7 +3358,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>33</v>
@@ -3355,22 +3371,22 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="52">
       <c r="A19" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>78</v>
@@ -3388,7 +3404,7 @@
         <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>33</v>
@@ -3401,13 +3417,13 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="52">
       <c r="A20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>62</v>
@@ -3416,7 +3432,7 @@
         <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>81</v>
@@ -3434,7 +3450,7 @@
         <v>66</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>33</v>
@@ -3447,13 +3463,13 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="52">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>73</v>
@@ -3462,7 +3478,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>85</v>
@@ -3490,21 +3506,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="39">
       <c r="A22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>11</v>
@@ -3529,7 +3545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3548,21 +3564,21 @@
       <c r="P23" s="10"/>
       <c r="U23" s="31"/>
     </row>
-    <row r="24" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="59.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -3591,21 +3607,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="52">
       <c r="A25" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -3634,21 +3650,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="70">
       <c r="A26" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>27</v>
@@ -3663,7 +3679,7 @@
         <v>66</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>33</v>
@@ -3676,25 +3692,25 @@
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="28">
       <c r="A27" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
@@ -3716,21 +3732,21 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="39">
       <c r="A28" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>6</v>
@@ -3752,21 +3768,21 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="78.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>6</v>
@@ -3788,21 +3804,21 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="39">
       <c r="A30" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -3824,21 +3840,21 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="74.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>27</v>
@@ -3860,21 +3876,21 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="52">
       <c r="A32" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>27</v>
@@ -3896,21 +3912,21 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="39">
       <c r="A33" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>27</v>
@@ -3932,21 +3948,21 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="52">
       <c r="A34" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>6</v>
@@ -3968,21 +3984,21 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="28">
       <c r="A35" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>27</v>
@@ -4004,21 +4020,21 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="26">
       <c r="A36" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>27</v>
@@ -4040,21 +4056,21 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="31.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -4076,21 +4092,21 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="31.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>27</v>
@@ -4112,21 +4128,21 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="31.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>27</v>
@@ -4148,21 +4164,21 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="39">
       <c r="A40" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>27</v>
@@ -4184,21 +4200,21 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="26">
       <c r="A41" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>27</v>
@@ -4220,21 +4236,21 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="26">
       <c r="A42" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>27</v>
@@ -4259,9 +4275,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="52">
       <c r="A43" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>90</v>
@@ -4270,7 +4286,7 @@
         <v>67</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>76</v>
@@ -4288,7 +4304,7 @@
         <v>66</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>33</v>
@@ -4312,9 +4328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="39">
       <c r="A44" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>90</v>
@@ -4323,7 +4339,7 @@
         <v>67</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>76</v>
@@ -4355,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21">
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
@@ -4376,7 +4392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
@@ -4397,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21">
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
@@ -4418,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
@@ -4432,7 +4448,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:16">
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
@@ -4446,7 +4462,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:16">
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
@@ -4460,7 +4476,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16">
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
@@ -4474,7 +4490,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:16">
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
@@ -4488,7 +4504,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:16">
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
@@ -4502,7 +4518,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
@@ -4516,7 +4532,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:16">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
@@ -4530,7 +4546,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:16">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
@@ -4544,7 +4560,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:16">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
@@ -4558,7 +4574,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
@@ -4572,7 +4588,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
@@ -4586,7 +4602,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
@@ -4600,7 +4616,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -4614,7 +4630,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
@@ -4628,7 +4644,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
@@ -4642,7 +4658,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
@@ -4656,7 +4672,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:16">
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
@@ -4670,7 +4686,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:16">
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
@@ -4684,7 +4700,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:16">
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
@@ -4698,7 +4714,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:16">
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
@@ -4712,7 +4728,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:16">
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
@@ -4726,7 +4742,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:16">
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
@@ -4740,7 +4756,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:16">
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
@@ -4754,7 +4770,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:16">
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
@@ -4768,7 +4784,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:16">
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
@@ -4782,7 +4798,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:16">
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
@@ -4796,7 +4812,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:16">
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
@@ -4810,7 +4826,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:16">
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
@@ -4824,7 +4840,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:16">
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
@@ -4838,7 +4854,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:16">
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
@@ -4852,7 +4868,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:16">
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
@@ -4866,7 +4882,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:16">
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
@@ -4880,7 +4896,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:16">
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
@@ -4894,7 +4910,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:16">
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
@@ -4908,7 +4924,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:16">
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
@@ -4922,7 +4938,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:16">
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
@@ -4936,7 +4952,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:16">
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
@@ -4950,7 +4966,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:16">
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
@@ -4964,7 +4980,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:16">
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
@@ -4978,7 +4994,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:16">
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
@@ -4992,7 +5008,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:16">
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
@@ -5006,7 +5022,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:16">
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
@@ -5020,7 +5036,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:16">
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
@@ -5034,7 +5050,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:16">
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
@@ -5048,7 +5064,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:16">
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
@@ -5062,7 +5078,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:16">
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
@@ -5076,7 +5092,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:16">
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
@@ -5090,7 +5106,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:16">
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
@@ -5104,7 +5120,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:16">
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
@@ -5118,7 +5134,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:16">
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
@@ -5132,7 +5148,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:16">
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
@@ -5146,7 +5162,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:16">
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
@@ -5160,7 +5176,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:16">
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
@@ -5174,7 +5190,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:16">
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
@@ -5188,7 +5204,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:16">
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
@@ -5202,7 +5218,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:16">
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
@@ -5216,7 +5232,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:16">
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
@@ -5230,7 +5246,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:16">
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
@@ -5244,7 +5260,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:16">
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
@@ -5258,7 +5274,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:16">
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
@@ -5272,7 +5288,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:16">
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
@@ -5286,7 +5302,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:16">
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
@@ -5300,7 +5316,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:16">
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
@@ -5314,7 +5330,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:16">
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
@@ -5328,7 +5344,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16">
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
@@ -5342,7 +5358,7 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16">
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
@@ -5356,7 +5372,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16">
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
@@ -5370,7 +5386,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16">
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
@@ -5384,7 +5400,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:16">
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
@@ -5398,7 +5414,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:16">
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
@@ -5412,7 +5428,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16">
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
@@ -5426,7 +5442,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16">
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
@@ -5440,7 +5456,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:16">
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
@@ -5454,7 +5470,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:16">
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
@@ -5468,7 +5484,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16">
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
@@ -5482,7 +5498,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:16">
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
@@ -5496,7 +5512,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:16">
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
@@ -5510,7 +5526,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:16">
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
@@ -5524,7 +5540,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:16">
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
@@ -5538,7 +5554,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:16">
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
@@ -5552,7 +5568,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:16">
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
@@ -5566,7 +5582,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:16">
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
@@ -5580,7 +5596,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:16">
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
@@ -5594,7 +5610,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:16">
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
@@ -5608,7 +5624,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:16">
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
@@ -5622,7 +5638,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:16">
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
@@ -5636,7 +5652,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:16">
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
@@ -5650,7 +5666,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:16">
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
@@ -5664,7 +5680,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:16">
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
@@ -5678,7 +5694,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:16">
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
@@ -5692,7 +5708,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:16">
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
@@ -5706,7 +5722,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:16">
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
@@ -5720,7 +5736,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:16">
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
@@ -5734,7 +5750,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:16">
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
@@ -5748,7 +5764,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:16">
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
@@ -5762,7 +5778,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:16">
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
@@ -5776,7 +5792,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:16">
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
@@ -5790,7 +5806,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:16">
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
@@ -5804,7 +5820,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:16">
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
@@ -5818,7 +5834,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:16">
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
@@ -5832,7 +5848,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:16">
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
@@ -5846,7 +5862,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:16">
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
@@ -5860,7 +5876,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:16">
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
@@ -5874,7 +5890,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:16">
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
@@ -5888,7 +5904,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:16">
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
@@ -5902,7 +5918,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:16">
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
@@ -5916,7 +5932,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:16">
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
@@ -5930,7 +5946,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:16">
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
@@ -5944,7 +5960,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:16">
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
@@ -5958,7 +5974,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:16">
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
@@ -5972,7 +5988,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:16">
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
@@ -5986,7 +6002,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:16">
       <c r="E160" s="10"/>
       <c r="F160" s="11"/>
       <c r="G160" s="10"/>
@@ -6000,7 +6016,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:16">
       <c r="E161" s="10"/>
       <c r="F161" s="11"/>
       <c r="G161" s="10"/>
@@ -6014,7 +6030,7 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:16">
       <c r="E162" s="10"/>
       <c r="F162" s="11"/>
       <c r="G162" s="10"/>
@@ -6028,7 +6044,7 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
     </row>
-    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:16">
       <c r="E163" s="10"/>
       <c r="F163" s="11"/>
       <c r="G163" s="10"/>
@@ -6042,7 +6058,7 @@
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
     </row>
-    <row r="164" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:16">
       <c r="E164" s="10"/>
       <c r="F164" s="11"/>
       <c r="G164" s="10"/>
@@ -6056,7 +6072,7 @@
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
     </row>
-    <row r="165" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:16">
       <c r="E165" s="10"/>
       <c r="F165" s="11"/>
       <c r="G165" s="10"/>
@@ -6070,7 +6086,7 @@
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
     </row>
-    <row r="166" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:16">
       <c r="E166" s="10"/>
       <c r="F166" s="11"/>
       <c r="G166" s="10"/>
@@ -6084,7 +6100,7 @@
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
     </row>
-    <row r="167" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:16">
       <c r="E167" s="10"/>
       <c r="F167" s="11"/>
       <c r="G167" s="10"/>
@@ -6098,7 +6114,7 @@
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
     </row>
-    <row r="168" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:16">
       <c r="E168" s="10"/>
       <c r="F168" s="11"/>
       <c r="G168" s="10"/>
@@ -6112,7 +6128,7 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:16">
       <c r="E169" s="10"/>
       <c r="F169" s="11"/>
       <c r="G169" s="10"/>
@@ -6126,7 +6142,7 @@
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
     </row>
-    <row r="170" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:16">
       <c r="E170" s="10"/>
       <c r="F170" s="11"/>
       <c r="G170" s="10"/>
@@ -6140,7 +6156,7 @@
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
     </row>
-    <row r="171" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:16">
       <c r="E171" s="10"/>
       <c r="F171" s="11"/>
       <c r="G171" s="10"/>
@@ -6154,7 +6170,7 @@
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
     </row>
-    <row r="172" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:16">
       <c r="E172" s="10"/>
       <c r="F172" s="11"/>
       <c r="G172" s="10"/>
@@ -6168,7 +6184,7 @@
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
     </row>
-    <row r="173" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:16">
       <c r="E173" s="10"/>
       <c r="F173" s="11"/>
       <c r="G173" s="10"/>
@@ -6182,7 +6198,7 @@
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
     </row>
-    <row r="174" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:16">
       <c r="E174" s="10"/>
       <c r="F174" s="11"/>
       <c r="G174" s="10"/>
@@ -6196,7 +6212,7 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:16">
       <c r="E175" s="10"/>
       <c r="F175" s="11"/>
       <c r="G175" s="10"/>
@@ -6210,7 +6226,7 @@
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
     </row>
-    <row r="176" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:16">
       <c r="E176" s="10"/>
       <c r="F176" s="11"/>
       <c r="G176" s="10"/>
@@ -6224,7 +6240,7 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:16">
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
@@ -6238,7 +6254,7 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:16">
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
@@ -6259,9 +6275,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -6291,33 +6307,36 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="71" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -6343,21 +6362,21 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -6369,21 +6388,21 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -6394,21 +6413,21 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6419,21 +6438,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6444,21 +6463,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -6469,21 +6488,21 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="42">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6494,21 +6513,21 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="42">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6519,21 +6538,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="42">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6544,21 +6563,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -6569,21 +6588,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -6594,21 +6613,21 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="56">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6619,21 +6638,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="56">
       <c r="A13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6644,21 +6663,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="42">
       <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6669,21 +6688,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="42">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6694,21 +6713,21 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="56">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6719,21 +6738,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="42">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6744,21 +6763,21 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="56">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6769,21 +6788,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="56">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6794,416 +6813,421 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="56">
       <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="56">
+      <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="42">
+      <c r="A22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" ht="42">
       <c r="A23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="39">
+      <c r="A24" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="39">
+      <c r="A25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="42">
+      <c r="A26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="39">
+      <c r="A27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="26">
+      <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="42">
+      <c r="A29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42">
+      <c r="A30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="39">
+      <c r="A31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26">
+      <c r="A32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42">
+      <c r="A33" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28">
+      <c r="A34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="3" t="s">
+    <row r="35" spans="1:5" ht="42">
+      <c r="A35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="E35" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="51" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="54" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="56">
+      <c r="A39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    <row r="40" spans="1:5" ht="56">
+      <c r="A40" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="1" t="s">
+    <row r="41" spans="1:5" ht="56">
+      <c r="A41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" ht="42">
+      <c r="A42" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="56">
+      <c r="A43" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7215,14 +7239,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -7250,7 +7274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
@@ -7264,7 +7288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -7278,22 +7302,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7407,22 +7451,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7436,27 +7488,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>